--- a/TaeHyeon/MLCC_Area.xlsx
+++ b/TaeHyeon/MLCC_Area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Final_project\TaeHyeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CC05E-DA0C-415D-8020-8BCA1068873C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A0783-789D-4C2A-AB2A-F79932EDD41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,14 +434,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
@@ -450,7 +450,7 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>21049.5</v>
       </c>
@@ -478,29 +478,8 @@
         <f>AVERAGE(A2:A161)</f>
         <v>20695.05</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(J2,L2)</f>
-        <v>3525.8781250000002</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(B2:B161)</f>
-        <v>3507.5875000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(C2:C161)</f>
-        <v>3544.1687499999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>19939.5</v>
       </c>
@@ -517,29 +496,8 @@
         <f>MAX(A2:A161)</f>
         <v>21542</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <f>MAX(B2:C161)</f>
-        <v>3973</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <f>MAX(B2:B161)</f>
-        <v>3867.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <f>MAX(C2:C161)</f>
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20800</v>
       </c>
@@ -556,158 +514,200 @@
         <f>MIN(A2:A161)</f>
         <v>19245</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>20485.5</v>
+      </c>
+      <c r="B5">
+        <v>3638.5</v>
+      </c>
+      <c r="C5">
+        <v>3525.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>20900.5</v>
+      </c>
+      <c r="B6">
+        <v>3371.5</v>
+      </c>
+      <c r="C6">
+        <v>3818.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(F10,F14)</f>
+        <v>3525.8781250000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>20559.5</v>
+      </c>
+      <c r="B7">
+        <v>3250.5</v>
+      </c>
+      <c r="C7">
+        <v>3421.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>MAX(B2:C161)</f>
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>21205</v>
+      </c>
+      <c r="B8">
+        <v>3603</v>
+      </c>
+      <c r="C8">
+        <v>3353.5</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="F8">
         <f>MIN(B2:C161)</f>
         <v>3086</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>20683</v>
+      </c>
+      <c r="B9">
+        <v>3226.5</v>
+      </c>
+      <c r="C9">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>20836</v>
+      </c>
+      <c r="B10">
+        <v>3465</v>
+      </c>
+      <c r="C10">
+        <v>3551</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(B2:B161)</f>
+        <v>3507.5875000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>20107</v>
+      </c>
+      <c r="B11">
+        <v>3435.5</v>
+      </c>
+      <c r="C11">
+        <v>3279</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f>MAX(B2:B161)</f>
+        <v>3867.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>21222</v>
+      </c>
+      <c r="B12">
+        <v>3710.5</v>
+      </c>
+      <c r="C12">
+        <v>3593.5</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="J4">
+      <c r="F12">
         <f>MIN(B2:B161)</f>
         <v>3088.5</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>20361</v>
+      </c>
+      <c r="B13">
+        <v>3143</v>
+      </c>
+      <c r="C13">
+        <v>3297.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>21161.5</v>
+      </c>
+      <c r="B14">
+        <v>3523</v>
+      </c>
+      <c r="C14">
+        <v>3543.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(C2:C161)</f>
+        <v>3544.1687499999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>20372.5</v>
+      </c>
+      <c r="B15">
+        <v>3366</v>
+      </c>
+      <c r="C15">
+        <v>3416</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>MAX(C2:C161)</f>
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>20935.5</v>
+      </c>
+      <c r="B16">
+        <v>3552</v>
+      </c>
+      <c r="C16">
+        <v>3607.5</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="F16">
         <f>MIN(C2:C161)</f>
         <v>3086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>20485.5</v>
-      </c>
-      <c r="B5">
-        <v>3638.5</v>
-      </c>
-      <c r="C5">
-        <v>3525.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>20900.5</v>
-      </c>
-      <c r="B6">
-        <v>3371.5</v>
-      </c>
-      <c r="C6">
-        <v>3818.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>20559.5</v>
-      </c>
-      <c r="B7">
-        <v>3250.5</v>
-      </c>
-      <c r="C7">
-        <v>3421.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>21205</v>
-      </c>
-      <c r="B8">
-        <v>3603</v>
-      </c>
-      <c r="C8">
-        <v>3353.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>20683</v>
-      </c>
-      <c r="B9">
-        <v>3226.5</v>
-      </c>
-      <c r="C9">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>20836</v>
-      </c>
-      <c r="B10">
-        <v>3465</v>
-      </c>
-      <c r="C10">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>20107</v>
-      </c>
-      <c r="B11">
-        <v>3435.5</v>
-      </c>
-      <c r="C11">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>21222</v>
-      </c>
-      <c r="B12">
-        <v>3710.5</v>
-      </c>
-      <c r="C12">
-        <v>3593.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>20361</v>
-      </c>
-      <c r="B13">
-        <v>3143</v>
-      </c>
-      <c r="C13">
-        <v>3297.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>21161.5</v>
-      </c>
-      <c r="B14">
-        <v>3523</v>
-      </c>
-      <c r="C14">
-        <v>3543.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>20372.5</v>
-      </c>
-      <c r="B15">
-        <v>3366</v>
-      </c>
-      <c r="C15">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>20935.5</v>
-      </c>
-      <c r="B16">
-        <v>3552</v>
-      </c>
-      <c r="C16">
-        <v>3607.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
